--- a/Project/BuildProto/Excel/Dialog.xlsx
+++ b/Project/BuildProto/Excel/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E2C81C-5916-495A-85F0-1AB239E2BBBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48DD0B0-75CD-455F-9425-6488831B5F69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="3915" windowWidth="29925" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="11790" windowWidth="23310" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog_Config" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>id唯一</t>
   </si>
@@ -507,14 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,11 +611,14 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BuildProto/Excel/Dialog.xlsx
+++ b/Project/BuildProto/Excel/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48DD0B0-75CD-455F-9425-6488831B5F69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4D896-1B9F-4FC3-A620-BA0664AD465A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="11790" windowWidth="23310" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3525" windowWidth="29925" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog_Config" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -614,11 +614,6 @@
       <c r="B9" s="2"/>
       <c r="C9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BuildProto/Excel/Dialog.xlsx
+++ b/Project/BuildProto/Excel/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4D896-1B9F-4FC3-A620-BA0664AD465A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EDF5DE-3D8D-4DD6-B68A-A997876ACDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3525" windowWidth="29925" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="6825" windowWidth="19170" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog_Config" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>id唯一</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,7 +611,9 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
